--- a/server/src/main/resources/templates/template-dict-setting.xlsx
+++ b/server/src/main/resources/templates/template-dict-setting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF80D30-1ABB-4BC8-A001-A44B4E1F2252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3418DA-F664-4686-87F4-017323D9B0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="2610" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -76,22 +76,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>字典编码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>配置名称</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +140,22 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明细编码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>注意：表头携带“</t>
     </r>
     <r>
@@ -203,7 +203,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>字典编码：</t>
+      <t>明细编码：</t>
     </r>
     <r>
       <rPr>
@@ -592,11 +592,11 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,7 +917,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -932,40 +932,40 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/server/src/main/resources/templates/template-dict-setting.xlsx
+++ b/server/src/main/resources/templates/template-dict-setting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3418DA-F664-4686-87F4-017323D9B0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD25C098-A6E4-4C27-842E-CBF3977BB66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -150,7 +150,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>明细编码</t>
+      <t>字典编码</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,7 +203,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>明细编码：</t>
+      <t>字典编码：</t>
     </r>
     <r>
       <rPr>

--- a/server/src/main/resources/templates/template-dict-setting.xlsx
+++ b/server/src/main/resources/templates/template-dict-setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD25C098-A6E4-4C27-842E-CBF3977BB66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9331166-CBEB-4A1F-A393-71C5835E3911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>导入说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,7 +85,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认配置</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置模板</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,53 +130,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>配置模板</t>
+      <t>配置明细</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>配置明细</t>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字典编码</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>字典编码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>注意：表头携带“</t>
     </r>
     <r>
@@ -335,75 +331,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">只有字典配置是激活状态才能正常使用。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 默认配置：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>同一个字典下</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>只会有一个默认配置项</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。默认配置都是已激活的状态；如果修改默认配置项为未激活状态，系统会</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>同时取消默认配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">，并从激活的中选取一个作为默认配置（如果没有就不设置默认项，也就是说字典下没有默认配置）。
 </t>
     </r>
     <r>
@@ -436,7 +363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,23 +436,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -576,7 +486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,9 +500,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -913,66 +820,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5CEC48-5F9C-4F04-A393-FBBF3E21069C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:G1"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="3" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="13.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="48.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F3" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="激活状态" prompt="必填" sqref="E3:E1048576" xr:uid="{C92E320B-AA11-4CBD-BC67-F17D62279349}">
       <formula1>"未激活,已激活"</formula1>
     </dataValidation>
@@ -983,12 +883,9 @@
       <formula1>1</formula1>
       <formula2>16</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="配置备注" prompt="对字典配置的一个简短描述" sqref="G3:G1048576" xr:uid="{45346766-2CF3-4C09-BB1D-98D1A5E45959}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="配置备注" prompt="对字典配置的一个简短描述" sqref="F3:F1048576" xr:uid="{45346766-2CF3-4C09-BB1D-98D1A5E45959}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="配置模板" prompt="请填写针对配置明细中的各个key进行简单说明，并且是JSON格式的字符串" sqref="C3:C1048576" xr:uid="{8EA58722-2C51-42CB-9C27-538AD0223874}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="配置明细" prompt="字典配置的明细，内容是一个JSON格式字符串" sqref="D3:D1048576" xr:uid="{61FA29E3-6505-4F4D-94C8-2772AA4A0793}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="默认配置" prompt="如果字典配置是该字典的默认配置，可以下拉选中“默认”即可，如果不是，可以不填写" sqref="F3:F1048576" xr:uid="{668F7D3D-CB23-4C57-A337-BD04680C1806}">
-      <formula1>"默认"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
